--- a/regionseng/4/industry/industry.xlsx
+++ b/regionseng/4/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +505,7 @@
     <col min="2" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11">
         <v>2006</v>
@@ -570,8 +570,14 @@
       <c r="P2" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -620,8 +626,14 @@
       <c r="P3" s="7">
         <v>763.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>986.9</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1190.9000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -670,8 +682,14 @@
       <c r="P4" s="7">
         <v>748.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7">
+        <v>959.2</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1168.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -720,8 +738,14 @@
       <c r="P5" s="9">
         <v>10959</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9">
+        <v>12049</v>
+      </c>
+      <c r="R5" s="9">
+        <v>12137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -770,8 +794,14 @@
       <c r="P6" s="9">
         <v>10461</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9">
+        <v>11419</v>
+      </c>
+      <c r="R6" s="9">
+        <v>11474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -820,8 +850,14 @@
       <c r="P7" s="7">
         <v>833.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="7">
+        <v>894.1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1085.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -870,8 +906,14 @@
       <c r="P8" s="7">
         <v>475.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="7">
+        <v>668.2</v>
+      </c>
+      <c r="R8" s="7">
+        <v>674.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -920,8 +962,14 @@
       <c r="P9" s="7">
         <v>106.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="7">
+        <v>124.9</v>
+      </c>
+      <c r="R9" s="7">
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -970,8 +1018,14 @@
       <c r="P10" s="7">
         <v>273.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="7">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="R10" s="7">
+        <v>494.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1074,14 @@
       <c r="P11" s="7">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="R11" s="7">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1130,14 @@
       <c r="P12" s="7">
         <v>513.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="7">
+        <v>717.8</v>
+      </c>
+      <c r="R12" s="7">
+        <v>716.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1087,7 +1153,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1102,7 +1168,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1185,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1195,7 +1261,7 @@
       <c r="M20" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/regionseng/4/industry/industry.xlsx
+++ b/regionseng/4/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +505,7 @@
     <col min="2" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11">
         <v>2006</v>
@@ -576,8 +576,11 @@
       <c r="R2" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -632,8 +635,11 @@
       <c r="R3" s="7">
         <v>1190.9000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="7">
+        <v>1053.5999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -688,8 +694,11 @@
       <c r="R4" s="7">
         <v>1168.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="7">
+        <v>1023.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -744,8 +753,11 @@
       <c r="R5" s="9">
         <v>12137</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="9">
+        <v>11468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -800,8 +812,11 @@
       <c r="R6" s="9">
         <v>11474</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="9">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -856,8 +871,11 @@
       <c r="R7" s="7">
         <v>1085.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="7">
+        <v>1220.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -912,8 +930,11 @@
       <c r="R8" s="7">
         <v>674.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="7">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -968,8 +989,11 @@
       <c r="R9" s="7">
         <v>151.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1024,8 +1048,11 @@
       <c r="R10" s="7">
         <v>494.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="7">
+        <v>410.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1107,11 @@
       <c r="R11" s="7">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1136,8 +1166,11 @@
       <c r="R12" s="7">
         <v>716.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="7">
+        <v>727.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1153,7 +1186,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1168,7 +1201,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1218,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
